--- a/TestConfig.xlsx
+++ b/TestConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bartlomiej.babula\Desktop\eSambo SELENIUM\poetry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B75865-63F4-4534-98DB-15E7088A0DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD720868-9111-4490-8F08-B55B0228EAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4008" yWindow="1104" windowWidth="17280" windowHeight="8964" xr2:uid="{DA712AA1-AAA5-49AF-83D1-17067538AFC1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DA712AA1-AAA5-49AF-83D1-17067538AFC1}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Wprowadź adres URL testowanego środowiska ---&gt;</t>
   </si>
@@ -107,12 +107,21 @@
   <si>
     <t>bartlomiej.babula.001</t>
   </si>
+  <si>
+    <t>Wprowadź sklep sieciowy</t>
+  </si>
+  <si>
+    <t>Wprowadź sklep franczyzowy</t>
+  </si>
+  <si>
+    <t>A88</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,8 +154,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,25 +171,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,16 +267,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -590,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169CCCE-B2B2-4CE1-906B-109CE93EA3E6}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -604,39 +608,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{44C2ECEA-0216-4D52-B69F-1A9828BDE350}"/>
   </hyperlinks>
